--- a/biology/Histoire de la zoologie et de la botanique/George_Edwards/George_Edwards.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Edwards/George_Edwards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Edwards, né le 3 avril 1694 à Stratford à l'est de Londres et mort le 23 juillet 1773 à Plaistow dans l'Essex, est un naturaliste britannique connu comme étant le père de l'ornithologie britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il découvre les arts et les sciences un peu par hasard. Sa famille hérite d'une bibliothèque appartenant à un proche et le jeune Edwards peut ainsi découvrir l'histoire naturelle, la peinture et la sculpture, l'astronomie et l'histoire antique.
 Edwards décide alors de quitter la Grande-Bretagne. Il voyage longtemps à travers l'Europe où il étudie l'histoire naturelle. Il se fait connaître pour ses illustrations en couleurs d'animaux, notamment d'oiseaux. En 1733, sur la recommandation de Sir Hans Sloane (1660-1753), il devient le bibliothécaire du Royal College of Physicians (l'école royale de médecine) à Londres (poste que tenait Christopher Merrett (1614-1695) 70 ans avant lui) et dispose d'un appartement de fonction dans l'école même. Ce poste lui permet de découvrir des livres rares d'histoire naturelle et améliore encore ses connaissances.
@@ -548,7 +562,9 @@
           <t>Citation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Art and Nature, like two Sisters, should always walk hand in hand, so that they may reciprocally aid and assist other.
 (L'art et la nature, comme deux sœurs, devraient toujours marcher de concert, de sorte qu'ils puissent s'aider et s'assister réciproquement)
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) « George Edwards », dans Encyclopædia Britannica [détail de l’édition], 1911 (lire sur Wikisource).</t>
         </is>
